--- a/docs/LendingClub Data Retrieval Protocol.xlsx
+++ b/docs/LendingClub Data Retrieval Protocol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="122">
   <si>
     <t>Feature name</t>
   </si>
@@ -363,6 +363,24 @@
   </si>
   <si>
     <t>loans_dataset_eng</t>
+  </si>
+  <si>
+    <t>max_L</t>
+  </si>
+  <si>
+    <t>Indication if it is max loan amount possible</t>
+  </si>
+  <si>
+    <t>max_fund_L</t>
+  </si>
+  <si>
+    <t>MAX_fund_L_inv</t>
+  </si>
+  <si>
+    <t>Indication if it is max funded amount possible</t>
+  </si>
+  <si>
+    <t>Indication if it is max funded inv amount possible</t>
   </si>
 </sst>
 </file>
@@ -775,10 +793,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z64"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1100,6 +1118,9 @@
       <c r="J12">
         <v>6</v>
       </c>
+      <c r="K12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1126,6 +1147,9 @@
       <c r="J13">
         <v>159</v>
       </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1172,6 +1196,9 @@
       <c r="J15">
         <v>8706582</v>
       </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1199,7 +1226,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1224,8 +1251,11 @@
       <c r="J17">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1250,8 +1280,11 @@
       <c r="J18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1276,8 +1309,11 @@
       <c r="J19">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1302,8 +1338,14 @@
       <c r="J20">
         <v>152</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1328,8 +1370,14 @@
       <c r="J21">
         <v>129</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
@@ -1355,7 +1403,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1380,8 +1428,11 @@
       <c r="J23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1406,8 +1457,11 @@
       <c r="J24">
         <v>1746716</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1432,8 +1486,11 @@
       <c r="J25">
         <v>892.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1458,8 +1515,11 @@
       <c r="J26">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1484,8 +1544,14 @@
       <c r="J27">
         <v>9152545</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1510,8 +1576,14 @@
       <c r="J28">
         <v>8000078</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1536,8 +1608,14 @@
       <c r="J29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1562,8 +1640,14 @@
       <c r="J30">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1588,8 +1672,14 @@
       <c r="J31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1613,6 +1703,12 @@
       </c>
       <c r="J32">
         <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1640,6 +1736,12 @@
       <c r="J33">
         <v>141</v>
       </c>
+      <c r="K33" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1666,6 +1768,12 @@
       <c r="J34">
         <v>249212</v>
       </c>
+      <c r="K34" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1692,6 +1800,12 @@
       <c r="J35">
         <v>129.19999999999999</v>
       </c>
+      <c r="K35" t="s">
+        <v>87</v>
+      </c>
+      <c r="L35" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1718,6 +1832,12 @@
       <c r="J36">
         <v>8</v>
       </c>
+      <c r="K36" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1744,6 +1864,12 @@
       <c r="J37">
         <v>21</v>
       </c>
+      <c r="K37" t="s">
+        <v>87</v>
+      </c>
+      <c r="L37" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1770,6 +1896,12 @@
       <c r="J38">
         <v>22279</v>
       </c>
+      <c r="K38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1796,6 +1928,12 @@
       <c r="J39">
         <v>102.8</v>
       </c>
+      <c r="K39" t="s">
+        <v>87</v>
+      </c>
+      <c r="L39" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1822,6 +1960,12 @@
       <c r="J40">
         <v>2013133</v>
       </c>
+      <c r="K40" t="s">
+        <v>87</v>
+      </c>
+      <c r="L40" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1848,6 +1992,12 @@
       <c r="J41">
         <v>9</v>
       </c>
+      <c r="K41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L41" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1874,6 +2024,12 @@
       <c r="J42">
         <v>21</v>
       </c>
+      <c r="K42" t="s">
+        <v>87</v>
+      </c>
+      <c r="L42" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1900,6 +2056,12 @@
       <c r="J43">
         <v>19</v>
       </c>
+      <c r="K43" t="s">
+        <v>87</v>
+      </c>
+      <c r="L43" t="s">
+        <v>86</v>
+      </c>
       <c r="M43" t="s">
         <v>72</v>
       </c>
@@ -1929,6 +2091,9 @@
       <c r="J44">
         <v>972.22</v>
       </c>
+      <c r="K44" t="s">
+        <v>87</v>
+      </c>
       <c r="M44" s="6" t="s">
         <v>73</v>
       </c>
@@ -1998,6 +2163,9 @@
       <c r="J47">
         <v>1.75</v>
       </c>
+      <c r="K47" t="s">
+        <v>3</v>
+      </c>
       <c r="M47" s="8" t="s">
         <v>81</v>
       </c>
@@ -2027,6 +2195,9 @@
       <c r="J48">
         <v>68</v>
       </c>
+      <c r="K48" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
@@ -2053,6 +2224,9 @@
       <c r="J49">
         <v>0.23100000000000001</v>
       </c>
+      <c r="K49" t="s">
+        <v>87</v>
+      </c>
       <c r="M49" s="8" t="s">
         <v>82</v>
       </c>
@@ -2162,6 +2336,9 @@
       <c r="J54">
         <v>12.33</v>
       </c>
+      <c r="L54" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
@@ -2386,12 +2563,73 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="8"/>
+      <c r="A64" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="8">
+        <v>2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="8">
+        <v>2</v>
+      </c>
+      <c r="M65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="8">
+        <v>2</v>
+      </c>
+      <c r="M66" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
